--- a/biology/Botanique/Classopollis/Classopollis.xlsx
+++ b/biology/Botanique/Classopollis/Classopollis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Classopollis est le nom de genre donné aux pollens de la famille aujourd’hui éteinte des Cheirolepidiaceae appartenant à l'embranchement des conifères (Pinophytes).
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La morphologie de la paroi externe (exine) des Classopollis montre une grande variabilité[1] qui :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La morphologie de la paroi externe (exine) des Classopollis montre une grande variabilité qui :
 témoigne de la faculté d'adaptation de ces pollens et des Conifères qui les portent à des milieux continentaux très variés ;
-permet de différencier un grand nombre d'espèces, qui sont de bons indicateurs des variations des paléoclimats en particulier au Jurassique et au Crétacé[2].</t>
+permet de différencier un grand nombre d'espèces, qui sont de bons indicateurs des variations des paléoclimats en particulier au Jurassique et au Crétacé.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Classopollis sont présents durant l’ère Mésozoïque avant de disparaître au début de l'ère Cénozoïque[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Classopollis sont présents durant l’ère Mésozoïque avant de disparaître au début de l'ère Cénozoïque,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon Fossilworks (avril 2016) :
 † Classopollis anasillos
